--- a/src/aegis/etls/cm_readthrough/config/categories/outlook_categories.xlsx
+++ b/src/aegis/etls/cm_readthrough/config/categories/outlook_categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>example_3</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>category_group</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +501,7 @@
           <t>Example 3</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +534,11 @@
           <t>Our backlog is up for the [X] consecutive quarter, our ability to execute on these transactions will be dependent on market conditions</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Investment Banking</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +571,11 @@
           <t>Market conditions are driving [increased/decreased] volumes and client engagement</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Markets &amp; Trading</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +608,11 @@
           <t>If the uncertainty can be navigated and priced into the market, there is progress on these complicated issues</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Client &amp; Sponsor Activity</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +645,11 @@
           <t>[Policy uncertainty/rate environment/regulatory changes] will be priced into the markets over time</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Thematic</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -654,6 +680,85 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>Clients seeking [geographic] alternatives due to [regulatory/political/operational] considerations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Thematic</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IPO and Equity Issuance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Equity capital markets activity including IPO pipelines, secondary offerings, follow-on issuance, convertible bonds, and equity-linked transactions. Covers IPO market readiness, issuer appetite, valuations, and ECM revenue trends.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>IPO pipelines are building nicely, we expect a meaningful pickup in equity issuance activity once market conditions stabilize</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>We are seeing increased interest from sponsors looking to bring companies public, although timing remains dependent on valuations and market receptivity</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ECM revenues were driven by follow-on offerings and convertible issuance, with the IPO market still waiting for a more sustained window</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Investment Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Corporate &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Overall C&amp;IB business outlook including wallet share gains, revenue diversification across advisory, underwriting, lending, and markets. Covers strategic positioning, client coverage expansion, geographic mix, and competitive dynamics across the integrated investment banking platform.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Our integrated Corporate &amp; Investment Banking platform continues to gain wallet share with top-tier clients across regions</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>We are seeing strong momentum across our C&amp;IB franchise, with balanced contributions from advisory, underwriting, and lending businesses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>The breadth of our platform allows us to serve clients across the full lifecycle of transactions, driving deeper relationships and revenue growth</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Investment Banking</t>
         </is>
       </c>
     </row>
